--- a/drafts/files/방화벽 정책 신청서_2025년_06월_27일_김지환.xlsx
+++ b/drafts/files/방화벽 정책 신청서_2025년_06월_27일_김지환.xlsx
@@ -443,7 +443,7 @@
   <cols>
     <col width="7" customWidth="1" min="1" max="1"/>
     <col width="14" customWidth="1" min="2" max="2"/>
-    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="16" customWidth="1" min="3" max="3"/>
     <col width="11" customWidth="1" min="4" max="4"/>
     <col width="9" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
@@ -495,12 +495,12 @@
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>10.10.10.5</t>
+          <t>10.10.10.1</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>192.168.5.4</t>
+          <t>192.168.10.1</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="G2" s="2" t="inlineStr">
         <is>
-          <t>2026-12-31</t>
+          <t>서비스 종료 시까지</t>
         </is>
       </c>
     </row>

--- a/drafts/files/방화벽 정책 신청서_2025년_06월_27일_김지환.xlsx
+++ b/drafts/files/방화벽 정책 신청서_2025년_06월_27일_김지환.xlsx
@@ -443,7 +443,7 @@
   <cols>
     <col width="7" customWidth="1" min="1" max="1"/>
     <col width="14" customWidth="1" min="2" max="2"/>
-    <col width="16" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
     <col width="11" customWidth="1" min="4" max="4"/>
     <col width="9" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
@@ -495,12 +495,12 @@
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>10.10.10.1</t>
+          <t>10.10.10.5</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>192.168.10.1</t>
+          <t>20.20.20.5</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">

--- a/drafts/files/방화벽 정책 신청서_2025년_06월_27일_김지환.xlsx
+++ b/drafts/files/방화벽 정책 신청서_2025년_06월_27일_김지환.xlsx
@@ -495,12 +495,12 @@
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>10.10.10.5</t>
+          <t>10.10.10.1</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>20.20.20.5</t>
+          <t>20.20.20.1</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
